--- a/generated-files/BuildingTemplate.xlsx
+++ b/generated-files/BuildingTemplate.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF22D651-AC54-4E9A-9B50-350E0E94FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3194501D-4190-4260-9985-B3D5EFD93A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42510" yWindow="-16665" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -26,9 +25,6 @@
     <t>建筑模板ID</t>
   </si>
   <si>
-    <t>buildingTemplateId</t>
-  </si>
-  <si>
     <t>建筑名称</t>
   </si>
   <si>
@@ -71,79 +67,52 @@
     <t>皇室高级官员的住所，封地中最主要的建筑，直邸的等级将影响到其他建筑物的等级和英雄等级，官哪中还有代表你身份地位的爵位，记录你生平事边的史册，以及幕僚的住处幕府</t>
   </si>
   <si>
-    <t>building_guandi_static</t>
-  </si>
-  <si>
     <t>珍宝阁</t>
   </si>
   <si>
     <t>皇室宗亲收集宝物的地方，这里可以对主物进行制作、突破和洗炼，还可以购买一些零件。升级珍宝阁可以增加珍宝商店购买次数</t>
   </si>
   <si>
-    <t>building_zhenbaoge_static</t>
-  </si>
-  <si>
     <t>驿馆</t>
   </si>
   <si>
     <t>各方英雄陶冶情操的地方，在这里你可以接触到各方英雄，前提是你要请他们喝佳酿。升级驿馆可以增加用银两招募的次数</t>
   </si>
   <si>
-    <t>building_yiguan_static</t>
-  </si>
-  <si>
     <t>弓兵营</t>
   </si>
   <si>
     <t>一个训练弓兵的营地，升级兵营可以提升练兵速度、数星和库存上限，进一步强化弓兵能力</t>
   </si>
   <si>
-    <t>building_gongbingying_static</t>
-  </si>
-  <si>
     <t>步兵营</t>
   </si>
   <si>
     <t>一个训练步兵的营地，升级兵营可以提升练兵速度、数是和库存上限，进一步强化步兵能力</t>
   </si>
   <si>
-    <t>building_bubingying_static</t>
-  </si>
-  <si>
     <t>骑兵营</t>
   </si>
   <si>
     <t>一个训练骑兵的营地，升级兵营可以提升练兵速度、数量和库存上限，进一步强化骑兵能力</t>
   </si>
   <si>
-    <t>building_qibingying_static</t>
-  </si>
-  <si>
     <t>军府</t>
   </si>
   <si>
     <t>古代朝廷的研究所，用来研究一切能进行研究的东西，只是你需要付出定的资源供养他们。升级车府可以提升科技等级上限和地图中部队移动速度</t>
   </si>
   <si>
-    <t>building_junfu_static</t>
-  </si>
-  <si>
     <t>演武场</t>
   </si>
   <si>
     <t>己方英雄进行练兵的场所，过关斩将和沙盘演义都能很好的检验英维们的实力。升级演武场可以增加英雄的带兵上限</t>
   </si>
   <si>
-    <t>building_yanwuchang_static</t>
-  </si>
-  <si>
     <t>辎重站</t>
   </si>
   <si>
     <t>朝廷用来存放物资的地方，在这里买到各种物资，不过听说不便宜。升级辎主站可以增加购买次数和每次购买得到的物资</t>
-  </si>
-  <si>
-    <t>building_zizhongzhan_static</t>
   </si>
   <si>
     <t>武馆</t>
@@ -153,34 +122,22 @@
 屈性</t>
   </si>
   <si>
-    <t>building_wuguan_static</t>
-  </si>
-  <si>
     <t>书院</t>
   </si>
   <si>
     <t>提供给你和其他英雄学习的地方，在这里，你可以消耗英雄碎片获得技能和将魂，还能夜观天象，获取强大的星宿。升级书院可以增加问道所获得的将魂数量</t>
   </si>
   <si>
-    <t>building_shuyuan_static</t>
-  </si>
-  <si>
     <t>冶炼厂</t>
   </si>
   <si>
     <t>一个可以生产生铁的地方，升级后产早更高</t>
   </si>
   <si>
-    <t>building_yelianchang_static</t>
-  </si>
-  <si>
     <t>铸币厂</t>
   </si>
   <si>
     <t>一个可以生产银两的地方，升级后产皋更高</t>
-  </si>
-  <si>
-    <t>building_zhubichang_static</t>
   </si>
   <si>
     <t>农庄</t>
@@ -190,34 +147,94 @@
 星更高</t>
   </si>
   <si>
-    <t>building_nongzhuang_static</t>
-  </si>
-  <si>
     <t>锯木厂</t>
   </si>
   <si>
     <t>一个可以生产木材的地方，升级后产是更高</t>
   </si>
   <si>
-    <t>building_jumuchang_static</t>
-  </si>
-  <si>
     <t>商店</t>
   </si>
   <si>
     <t>购买商品的地方</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>方士营</t>
   </si>
   <si>
     <t>一个训练方式的营地，升级兵营可以提升方士的属性</t>
   </si>
   <si>
-    <t>building_fangshiying_static</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_guandi_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_zhenbaoge_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_yiguan_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_gongbingying_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_bubingying_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_qibingying_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_junfu_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_yanwuchang_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_zizhongzhan_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_wuguan_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_shuyuan_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_yelianchang_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_zhubichang_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_nongzhuang_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_jumuchang_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_fangshiying_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/building_shangdian_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,13 +601,13 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
@@ -602,45 +619,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -648,16 +665,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -671,16 +688,16 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -694,16 +711,16 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -717,16 +734,16 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -740,16 +757,16 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -763,16 +780,16 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -786,16 +803,16 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -809,16 +826,16 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -832,16 +849,16 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -855,16 +872,16 @@
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -878,16 +895,16 @@
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -901,16 +918,16 @@
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -924,16 +941,16 @@
         <v>1014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -947,16 +964,16 @@
         <v>1015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -970,16 +987,16 @@
         <v>1016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -993,16 +1010,16 @@
         <v>1017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1016,16 +1033,16 @@
         <v>1018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1039,16 +1056,16 @@
         <v>1019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1062,16 +1079,16 @@
         <v>1020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1085,16 +1102,16 @@
         <v>1021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1108,16 +1125,16 @@
         <v>1022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>

--- a/generated-files/BuildingTemplate.xlsx
+++ b/generated-files/BuildingTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3194501D-4190-4260-9985-B3D5EFD93A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F092B-FDAF-46C2-A5A4-2784B8EF6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42510" yWindow="-16665" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTemplate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>建筑模板ID</t>
   </si>
@@ -47,18 +47,6 @@
   </si>
   <si>
     <t>imageUrl</t>
-  </si>
-  <si>
-    <t>所需玩家等级</t>
-  </si>
-  <si>
-    <t>requiredPlayerLevel</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>maxLevel</t>
   </si>
   <si>
     <t>官邸</t>
@@ -598,11 +586,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -610,11 +596,9 @@
     <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,16 +614,10 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -653,504 +631,302 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1014</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1017</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1018</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1019</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1020</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1021</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1022</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/generated-files/BuildingTemplate.xlsx
+++ b/generated-files/BuildingTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28304"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F092B-FDAF-46C2-A5A4-2784B8EF6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F24D2-E62C-45D3-AA4E-7F5E6A6E55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,72 +157,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/building_guandi_static</t>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1001.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/building_zhenbaoge_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_yiguan_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_gongbingying_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_bubingying_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_qibingying_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_junfu_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_yanwuchang_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_zizhongzhan_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_wuguan_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_shuyuan_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_yelianchang_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_zhubichang_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_nongzhuang_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_jumuchang_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_fangshiying_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/building_shangdian_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1002.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1003.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1004.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1005.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1006.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1007.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1008.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1009.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1010.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1011.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1012.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1013.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1014.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1015.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1016.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1017.png</t>
   </si>
 </sst>
 </file>
@@ -588,14 +572,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -867,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">

--- a/generated-files/BuildingTemplate.xlsx
+++ b/generated-files/BuildingTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F24D2-E62C-45D3-AA4E-7F5E6A6E55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCCCCB-DC85-4A9A-8F29-E1015034EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>是否可升级</t>
   </si>
   <si>
-    <t>isUpgradeable</t>
-  </si>
-  <si>
     <t>建筑图标URL</t>
   </si>
   <si>
@@ -207,6 +204,10 @@
   </si>
   <si>
     <t>Assets/Resources_moved/BuildingAssets/Sprites/Exterior/Building_Exterior_1017.png</t>
+  </si>
+  <si>
+    <t>isUpgradeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +574,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,12 +599,12 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -612,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -623,16 +624,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -640,16 +641,16 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,16 +658,16 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -674,16 +675,16 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -691,16 +692,16 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -708,16 +709,16 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,16 +726,16 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,16 +743,16 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,16 +760,16 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,16 +777,16 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,16 +794,16 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -810,16 +811,16 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -827,16 +828,16 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,16 +845,16 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -861,16 +862,16 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -878,16 +879,16 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,16 +896,16 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
